--- a/exportar.xlsx
+++ b/exportar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Comentario</t>
   </si>
@@ -67,7 +67,265 @@
     <t>Dic</t>
   </si>
   <si>
-    <t>Ningún registro encontrado.</t>
+    <t xml:space="preserve">
+							</t>
+  </si>
+  <si>
+    <t>ARIEL SAADIA</t>
+  </si>
+  <si>
+    <t>Ernesto Sanchez Galvan</t>
+  </si>
+  <si>
+    <t>GRUPO ADIEL S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                BUZON
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                LIQUI
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>GRUPO TNU SA DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                CONST
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>VICTOR POLITI KAMKHAJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHLOMO POLITIS ZEITOUNE </t>
+  </si>
+  <si>
+    <t>VICTOR POLITIS KAMKHAJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARY ENTEBI YEDID				</t>
+  </si>
+  <si>
+    <t>Alejandro Herrera Figueroa</t>
+  </si>
+  <si>
+    <t>YOLANDA ABADI ENTEBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                FACTU
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>ALEJANDRA ONESTI</t>
+  </si>
+  <si>
+    <t>Jenifer Elizabeth Medina Canuto</t>
+  </si>
+  <si>
+    <t>ANDRES ANDJELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                ANUAL
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                CONTA
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>ARI SAADIA ATACH</t>
+  </si>
+  <si>
+    <t>DAVID SAADIA ATACH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				LIQUIDAR SOCIEDAD
+							</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                DIM
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				PRECIERRE CON LAURA
+							</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                PRECI
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				PENDIENTE JACOBO BRAUN CONFIRME EL COSTO
+							</t>
+  </si>
+  <si>
+    <t>BEGOÑA IÑIGUEZ MONTIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                RIF
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>JARO URBANSKY</t>
+  </si>
+  <si>
+    <t>BRUPA SA DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				SOLICITAR VERIFICACION 
+							</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                CERO
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t>DAN LEVY</t>
+  </si>
+  <si>
+    <t>DAN EZRA LEVY BESSOUDO</t>
+  </si>
+  <si>
+    <t>JAIME AZAR CHARAF</t>
+  </si>
+  <si>
+    <t>DANGALAK SA DE CV</t>
+  </si>
+  <si>
+    <t>ELI CHEJA SITTON</t>
+  </si>
+  <si>
+    <t>JACOBO CHEJA SITTON</t>
+  </si>
+  <si>
+    <t>ROSI HABER NAHMAD</t>
+  </si>
+  <si>
+    <t>EMILIA ABADI ENTEBI</t>
+  </si>
+  <si>
+    <t>JAIME ABADI ENTEBI</t>
+  </si>
+  <si>
+    <t>JESSJAI SA DE CV</t>
+  </si>
+  <si>
+    <t>MARCOS SHJEBAR ZONANA</t>
+  </si>
+  <si>
+    <t>EXITO INMOBILIARIO DEL PONIENTE S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>DANIEL A DE FOSSEY</t>
+  </si>
+  <si>
+    <t>FONDA CUMBRES S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>FONDA ILMEN SAPI DE CV</t>
+  </si>
+  <si>
+    <t>FONDA PALENQUE S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>GRUPO CHILANGOGRINGO SAPI DE CV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				CONFIRMAR JUNTA CON BRAUN
+							</t>
+  </si>
+  <si>
+    <t>JUAN MANUEL GARBINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				QUE SE CAMBIE A 2017
+							</t>
+  </si>
+  <si>
+    <t>PABLO IGNACIO MICHELTORENA</t>
+  </si>
+  <si>
+    <t>RAFAEL PIZA INMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAEL PIZA INMAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+				ACTUALIZA 2 SEPTIEMBRE
+							</t>
+  </si>
+  <si>
+    <t>ABRAHAM KORENFELD</t>
+  </si>
+  <si>
+    <t>SAMUEL SEVILLA BENREY</t>
+  </si>
+  <si>
+    <t>VIRGINIA GALINDO OROZCO</t>
+  </si>
+  <si>
+    <t>Armando San Juan Alvarado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                ASIMI
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Ivan Abraham Parra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                NOMIN
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana Lopez Pizaña </t>
+  </si>
+  <si>
+    <t>Martha Escamilla Luna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                3% SO
+                                Archivos
+                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                IMSS 
+                                Archivos
+                </t>
   </si>
 </sst>
 </file>
@@ -86,7 +344,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,8 +354,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF009900"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF00F00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -113,30 +389,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="1329">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -191,10 +448,3937 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -496,7 +4680,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -504,6 +4688,24 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="10" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="11" max="11" width="10" customWidth="true" style="0"/>
+    <col min="12" max="12" width="10" customWidth="true" style="0"/>
+    <col min="13" max="13" width="10" customWidth="true" style="0"/>
+    <col min="14" max="14" width="10" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10" customWidth="true" style="0"/>
+    <col min="16" max="16" width="10" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
@@ -559,27 +4761,4105 @@
       <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
+      <c r="B2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="95" t="s">
+        <v>20</v>
+      </c>
+      <c r="P6" s="96" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="106" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="108" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="110" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="111" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="118" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="124" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="125" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="126" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="129" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="134" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="136" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="137" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="139" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="141" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" s="142" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="P9" s="144" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="149" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="150" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="151" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="152" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="153" t="s">
+        <v>35</v>
+      </c>
+      <c r="J10" s="154" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="155" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="156" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" s="157" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="158" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="159" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="160" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="162" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="163" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="164" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="166" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="167" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="168" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="170" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="171" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="172" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="173" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="175" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="176" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="177" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="180" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="182" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="183" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="184" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="185" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="186" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="187" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="189" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="190" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="191" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="192" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="194" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="195" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="196" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="197" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="198" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="199" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="200" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="201" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="202" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="203" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="204" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="205" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="206" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="207" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="209" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="212" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="213" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="214" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="215" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="216" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="217" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="218" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="220" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="222" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="223" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="224" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="225" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="226" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="227" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="228" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="230" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="231" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="232" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="233" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="234" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="235" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="236" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="237" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="238" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="239" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="240" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="241" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="242" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="243" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="244" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="245" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="246" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="247" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="248" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="249" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="250" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="251" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="252" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" s="253" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="254" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="255" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="256" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="257" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="258" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="259" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="260" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="261" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="262" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="263" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="264" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="265" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="266" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="267" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="268" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="269" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="270" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="271" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="272" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="273" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="274" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="275" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="276" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="277" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="278" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="279" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="280" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="281" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="282" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="283" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="284" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="285" t="s">
+        <v>35</v>
+      </c>
+      <c r="N18" s="286" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" s="287" t="s">
+        <v>35</v>
+      </c>
+      <c r="P18" s="288" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="290" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="291" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="292" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="293" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="295" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="296" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="297" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="298" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="299" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="300" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="301" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="302" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="303" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="304" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="305" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="306" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="307" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="308" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="309" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="310" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="311" t="s">
+        <v>44</v>
+      </c>
+      <c r="H20" s="312" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="313" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="314" t="s">
+        <v>44</v>
+      </c>
+      <c r="K20" s="315" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="316" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="317" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="318" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="319" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="320" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="321" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="322" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="323" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="324" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="325" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="326" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="327" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="328" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="329" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="330" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="331" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="332" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="333" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="334" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="335" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="336" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="337" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="338" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="339" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="340" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="341" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="342" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="343" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="344" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" s="345" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="346" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="347" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" s="348" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="349" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" s="350" t="s">
+        <v>48</v>
+      </c>
+      <c r="O22" s="351" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="352" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="353" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="354" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="355" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="356" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="357" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="358" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="359" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="360" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="361" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="362" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="363" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="364" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="365" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="366" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="367" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="368" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="369" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="370" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="371" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="372" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="373" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="374" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="375" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="376" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="377" t="s">
+        <v>35</v>
+      </c>
+      <c r="J24" s="378" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="379" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="380" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" s="381" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="382" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" s="383" t="s">
+        <v>35</v>
+      </c>
+      <c r="P24" s="384" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="385" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="386" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="387" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="388" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="389" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="390" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="391" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="392" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="393" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="394" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="395" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="396" t="s">
+        <v>34</v>
+      </c>
+      <c r="M25" s="397" t="s">
+        <v>34</v>
+      </c>
+      <c r="N25" s="398" t="s">
+        <v>34</v>
+      </c>
+      <c r="O25" s="399" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" s="400" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="401" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="402" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="403" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="404" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="405" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="406" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="407" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="408" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="409" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="410" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="411" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="412" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="413" t="s">
+        <v>35</v>
+      </c>
+      <c r="N26" s="414" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" s="415" t="s">
+        <v>35</v>
+      </c>
+      <c r="P26" s="416" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="417" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="418" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="419" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="420" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="421" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="422" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="423" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="424" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="425" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="426" t="s">
+        <v>41</v>
+      </c>
+      <c r="K27" s="427" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="428" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="429" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="430" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="431" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="432" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="433" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="434" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="435" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="436" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="437" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="438" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="439" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="440" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="441" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="442" t="s">
+        <v>34</v>
+      </c>
+      <c r="K28" s="443" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="444" t="s">
+        <v>34</v>
+      </c>
+      <c r="M28" s="445" t="s">
+        <v>34</v>
+      </c>
+      <c r="N28" s="446" t="s">
+        <v>34</v>
+      </c>
+      <c r="O28" s="447" t="s">
+        <v>34</v>
+      </c>
+      <c r="P28" s="448" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="449" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="450" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="451" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="452" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="453" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="454" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="455" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="456" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="457" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="458" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="459" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="460" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" s="461" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="462" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" s="463" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="464" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="465" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="466" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="467" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="468" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="469" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="470" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="471" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" s="472" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="473" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="474" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="475" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="476" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" s="477" t="s">
+        <v>44</v>
+      </c>
+      <c r="N30" s="478" t="s">
+        <v>44</v>
+      </c>
+      <c r="O30" s="479" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="480" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="481" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="482" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="483" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="484" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="485" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="486" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="487" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" s="488" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="489" t="s">
+        <v>44</v>
+      </c>
+      <c r="J31" s="490" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="491" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="492" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" s="493" t="s">
+        <v>44</v>
+      </c>
+      <c r="N31" s="494" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="495" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="496" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="497" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="498" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="499" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="500" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="501" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="502" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="503" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="504" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="505" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" s="506" t="s">
+        <v>44</v>
+      </c>
+      <c r="K32" s="507" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="508" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" s="509" t="s">
+        <v>44</v>
+      </c>
+      <c r="N32" s="510" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" s="511" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="512" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="513" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="514" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="515" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="516" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="517" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="518" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="519" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="520" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="521" t="s">
+        <v>44</v>
+      </c>
+      <c r="J33" s="522" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="523" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="524" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" s="525" t="s">
+        <v>44</v>
+      </c>
+      <c r="N33" s="526" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" s="527" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="528" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="529" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="530" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="531" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="532" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="533" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="534" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="535" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="536" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="537" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="538" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34" s="539" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="540" t="s">
+        <v>34</v>
+      </c>
+      <c r="M34" s="541" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" s="542" t="s">
+        <v>34</v>
+      </c>
+      <c r="O34" s="543" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" s="544" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="545" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="546" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="547" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="548" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="549" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="550" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="551" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="552" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="553" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="554" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="555" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="556" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" s="557" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="558" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="559" t="s">
+        <v>35</v>
+      </c>
+      <c r="P35" s="560" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="561" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="562" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="563" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="564" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="565" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="566" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="567" t="s">
+        <v>44</v>
+      </c>
+      <c r="H36" s="568" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="569" t="s">
+        <v>44</v>
+      </c>
+      <c r="J36" s="570" t="s">
+        <v>44</v>
+      </c>
+      <c r="K36" s="571" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="572" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" s="573" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="574" t="s">
+        <v>44</v>
+      </c>
+      <c r="O36" s="575" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="576" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="577" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="578" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="579" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="580" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="581" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="582" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="583" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="584" t="s">
+        <v>34</v>
+      </c>
+      <c r="I37" s="585" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" s="586" t="s">
+        <v>34</v>
+      </c>
+      <c r="K37" s="587" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="588" t="s">
+        <v>34</v>
+      </c>
+      <c r="M37" s="589" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" s="590" t="s">
+        <v>34</v>
+      </c>
+      <c r="O37" s="591" t="s">
+        <v>34</v>
+      </c>
+      <c r="P37" s="592" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="593" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="594" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="595" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="596" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="597" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="598" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="599" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="600" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="601" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="602" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="603" t="s">
+        <v>35</v>
+      </c>
+      <c r="L38" s="604" t="s">
+        <v>35</v>
+      </c>
+      <c r="M38" s="605" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="606" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="607" t="s">
+        <v>35</v>
+      </c>
+      <c r="P38" s="608" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="609" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="610" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="611" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="612" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" s="613" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="614" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="615" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="616" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="617" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="618" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39" s="619" t="s">
+        <v>39</v>
+      </c>
+      <c r="L39" s="620" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" s="621" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" s="622" t="s">
+        <v>39</v>
+      </c>
+      <c r="O39" s="623" t="s">
+        <v>39</v>
+      </c>
+      <c r="P39" s="624" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="625" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="626" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="627" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="628" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="629" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="630" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="631" t="s">
+        <v>41</v>
+      </c>
+      <c r="H40" s="632" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="633" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="634" t="s">
+        <v>41</v>
+      </c>
+      <c r="K40" s="635" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="636" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="637" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" s="638" t="s">
+        <v>41</v>
+      </c>
+      <c r="O40" s="639" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="640" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="641" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="642" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="643" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="644" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="645" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="646" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="647" t="s">
+        <v>44</v>
+      </c>
+      <c r="H41" s="648" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="649" t="s">
+        <v>44</v>
+      </c>
+      <c r="J41" s="650" t="s">
+        <v>44</v>
+      </c>
+      <c r="K41" s="651" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="652" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" s="653" t="s">
+        <v>44</v>
+      </c>
+      <c r="N41" s="654" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" s="655" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" s="656" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="657" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="658" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="659" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="660" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="661" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="662" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="663" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="664" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" s="665" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" s="666" t="s">
+        <v>34</v>
+      </c>
+      <c r="K42" s="667" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="668" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="669" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" s="670" t="s">
+        <v>34</v>
+      </c>
+      <c r="O42" s="671" t="s">
+        <v>34</v>
+      </c>
+      <c r="P42" s="672" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="673" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="674" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="675" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="676" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="677" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="678" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="679" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="680" t="s">
+        <v>35</v>
+      </c>
+      <c r="I43" s="681" t="s">
+        <v>35</v>
+      </c>
+      <c r="J43" s="682" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" s="683" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" s="684" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="685" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="686" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" s="687" t="s">
+        <v>35</v>
+      </c>
+      <c r="P43" s="688" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="689" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="690" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="691" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="692" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" s="693" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="694" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="695" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="696" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="697" t="s">
+        <v>41</v>
+      </c>
+      <c r="J44" s="698" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="699" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="700" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="701" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" s="702" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="703" t="s">
+        <v>41</v>
+      </c>
+      <c r="P44" s="704" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="705" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="706" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="707" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="708" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="709" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="710" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="711" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="712" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="713" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" s="714" t="s">
+        <v>34</v>
+      </c>
+      <c r="K45" s="715" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="716" t="s">
+        <v>34</v>
+      </c>
+      <c r="M45" s="717" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" s="718" t="s">
+        <v>34</v>
+      </c>
+      <c r="O45" s="719" t="s">
+        <v>34</v>
+      </c>
+      <c r="P45" s="720" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="721" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="722" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="723" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="724" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" s="725" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="726" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="727" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="728" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="729" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46" s="730" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" s="731" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" s="732" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" s="733" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="734" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="735" t="s">
+        <v>35</v>
+      </c>
+      <c r="P46" s="736" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="737" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="738" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="739" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="740" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="741" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="742" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="743" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="744" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="745" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" s="746" t="s">
+        <v>34</v>
+      </c>
+      <c r="K47" s="747" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="748" t="s">
+        <v>34</v>
+      </c>
+      <c r="M47" s="749" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" s="750" t="s">
+        <v>34</v>
+      </c>
+      <c r="O47" s="751" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" s="752" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="753" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="754" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="755" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="756" t="s">
+        <v>64</v>
+      </c>
+      <c r="E48" s="757" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="758" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="759" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" s="760" t="s">
+        <v>35</v>
+      </c>
+      <c r="I48" s="761" t="s">
+        <v>35</v>
+      </c>
+      <c r="J48" s="762" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" s="763" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" s="764" t="s">
+        <v>35</v>
+      </c>
+      <c r="M48" s="765" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="766" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" s="767" t="s">
+        <v>35</v>
+      </c>
+      <c r="P48" s="768" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="769" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="770" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="771" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="772" t="s">
+        <v>64</v>
+      </c>
+      <c r="E49" s="773" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" s="774" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="775" t="s">
+        <v>41</v>
+      </c>
+      <c r="H49" s="776" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="777" t="s">
+        <v>41</v>
+      </c>
+      <c r="J49" s="778" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49" s="779" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="780" t="s">
+        <v>41</v>
+      </c>
+      <c r="M49" s="781" t="s">
+        <v>41</v>
+      </c>
+      <c r="N49" s="782" t="s">
+        <v>41</v>
+      </c>
+      <c r="O49" s="783" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" s="784" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="785" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="786" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="787" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="788" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="789" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="790" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="791" t="s">
+        <v>34</v>
+      </c>
+      <c r="H50" s="792" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="793" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" s="794" t="s">
+        <v>34</v>
+      </c>
+      <c r="K50" s="795" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="796" t="s">
+        <v>34</v>
+      </c>
+      <c r="M50" s="797" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" s="798" t="s">
+        <v>34</v>
+      </c>
+      <c r="O50" s="799" t="s">
+        <v>34</v>
+      </c>
+      <c r="P50" s="800" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="801" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="802" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="803" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="804" t="s">
+        <v>65</v>
+      </c>
+      <c r="E51" s="805" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="806" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="807" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="808" t="s">
+        <v>35</v>
+      </c>
+      <c r="I51" s="809" t="s">
+        <v>35</v>
+      </c>
+      <c r="J51" s="810" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="811" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" s="812" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" s="813" t="s">
+        <v>35</v>
+      </c>
+      <c r="N51" s="814" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" s="815" t="s">
+        <v>35</v>
+      </c>
+      <c r="P51" s="816" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="817" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="818" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="819" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="820" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="821" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="822" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="823" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="824" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="825" t="s">
+        <v>39</v>
+      </c>
+      <c r="J52" s="826" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="827" t="s">
+        <v>39</v>
+      </c>
+      <c r="L52" s="828" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52" s="829" t="s">
+        <v>39</v>
+      </c>
+      <c r="N52" s="830" t="s">
+        <v>39</v>
+      </c>
+      <c r="O52" s="831" t="s">
+        <v>39</v>
+      </c>
+      <c r="P52" s="832" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="833" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="834" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="835" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="836" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" s="837" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="838" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="839" t="s">
+        <v>41</v>
+      </c>
+      <c r="H53" s="840" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="841" t="s">
+        <v>41</v>
+      </c>
+      <c r="J53" s="842" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="843" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="844" t="s">
+        <v>41</v>
+      </c>
+      <c r="M53" s="845" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="846" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="847" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="848" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="849" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="850" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="851" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="852" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="853" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="854" t="s">
+        <v>34</v>
+      </c>
+      <c r="G54" s="855" t="s">
+        <v>34</v>
+      </c>
+      <c r="H54" s="856" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="857" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="858" t="s">
+        <v>34</v>
+      </c>
+      <c r="K54" s="859" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="860" t="s">
+        <v>34</v>
+      </c>
+      <c r="M54" s="861" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="862" t="s">
+        <v>34</v>
+      </c>
+      <c r="O54" s="863" t="s">
+        <v>34</v>
+      </c>
+      <c r="P54" s="864" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="865" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="866" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="867" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="868" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="869" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="870" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="871" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" s="872" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" s="873" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="874" t="s">
+        <v>34</v>
+      </c>
+      <c r="K55" s="875" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="876" t="s">
+        <v>34</v>
+      </c>
+      <c r="M55" s="877" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" s="878" t="s">
+        <v>34</v>
+      </c>
+      <c r="O55" s="879" t="s">
+        <v>34</v>
+      </c>
+      <c r="P55" s="880" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="881" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="882" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="883" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="884" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="885" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="886" t="s">
+        <v>34</v>
+      </c>
+      <c r="G56" s="887" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="888" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" s="889" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" s="890" t="s">
+        <v>34</v>
+      </c>
+      <c r="K56" s="891" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="892" t="s">
+        <v>34</v>
+      </c>
+      <c r="M56" s="893" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" s="894" t="s">
+        <v>34</v>
+      </c>
+      <c r="O56" s="895" t="s">
+        <v>34</v>
+      </c>
+      <c r="P56" s="896" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="897" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="898" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="899" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" s="900" t="s">
+        <v>71</v>
+      </c>
+      <c r="E57" s="901" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" s="902" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" s="903" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" s="904" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" s="905" t="s">
+        <v>35</v>
+      </c>
+      <c r="J57" s="906" t="s">
+        <v>35</v>
+      </c>
+      <c r="K57" s="907" t="s">
+        <v>35</v>
+      </c>
+      <c r="L57" s="908" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" s="909" t="s">
+        <v>35</v>
+      </c>
+      <c r="N57" s="910" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" s="911" t="s">
+        <v>35</v>
+      </c>
+      <c r="P57" s="912" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="913" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="914" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="915" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" s="916" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="917" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" s="918" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58" s="919" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" s="920" t="s">
+        <v>39</v>
+      </c>
+      <c r="I58" s="921" t="s">
+        <v>39</v>
+      </c>
+      <c r="J58" s="922" t="s">
+        <v>39</v>
+      </c>
+      <c r="K58" s="923" t="s">
+        <v>39</v>
+      </c>
+      <c r="L58" s="924" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="925" t="s">
+        <v>39</v>
+      </c>
+      <c r="N58" s="926" t="s">
+        <v>39</v>
+      </c>
+      <c r="O58" s="927" t="s">
+        <v>39</v>
+      </c>
+      <c r="P58" s="928" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="929" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="930" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="931" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="932" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="933" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="934" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="935" t="s">
+        <v>34</v>
+      </c>
+      <c r="H59" s="936" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="937" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="938" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="939" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="940" t="s">
+        <v>34</v>
+      </c>
+      <c r="M59" s="941" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" s="942" t="s">
+        <v>34</v>
+      </c>
+      <c r="O59" s="943" t="s">
+        <v>34</v>
+      </c>
+      <c r="P59" s="944" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="945" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="946" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="947" t="s">
+        <v>32</v>
+      </c>
+      <c r="D60" s="948" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="949" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="950" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="951" t="s">
+        <v>34</v>
+      </c>
+      <c r="H60" s="952" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" s="953" t="s">
+        <v>34</v>
+      </c>
+      <c r="J60" s="954" t="s">
+        <v>34</v>
+      </c>
+      <c r="K60" s="955" t="s">
+        <v>34</v>
+      </c>
+      <c r="L60" s="956" t="s">
+        <v>34</v>
+      </c>
+      <c r="M60" s="957" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" s="958" t="s">
+        <v>34</v>
+      </c>
+      <c r="O60" s="959" t="s">
+        <v>34</v>
+      </c>
+      <c r="P60" s="960" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="961" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="962" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="963" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" s="964" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="965" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="966" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61" s="967" t="s">
+        <v>39</v>
+      </c>
+      <c r="H61" s="968" t="s">
+        <v>39</v>
+      </c>
+      <c r="I61" s="969" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" s="970" t="s">
+        <v>39</v>
+      </c>
+      <c r="K61" s="971" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="972" t="s">
+        <v>39</v>
+      </c>
+      <c r="M61" s="973" t="s">
+        <v>39</v>
+      </c>
+      <c r="N61" s="974" t="s">
+        <v>39</v>
+      </c>
+      <c r="O61" s="975" t="s">
+        <v>39</v>
+      </c>
+      <c r="P61" s="976" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="977" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="978" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="979" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="980" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="981" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="982" t="s">
+        <v>44</v>
+      </c>
+      <c r="G62" s="983" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="984" t="s">
+        <v>44</v>
+      </c>
+      <c r="I62" s="985" t="s">
+        <v>44</v>
+      </c>
+      <c r="J62" s="986" t="s">
+        <v>44</v>
+      </c>
+      <c r="K62" s="987" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" s="988" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="989" t="s">
+        <v>44</v>
+      </c>
+      <c r="N62" s="990" t="s">
+        <v>44</v>
+      </c>
+      <c r="O62" s="991" t="s">
+        <v>44</v>
+      </c>
+      <c r="P62" s="992" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="993" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="994" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="995" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="996" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" s="997" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="998" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" s="999" t="s">
+        <v>34</v>
+      </c>
+      <c r="H63" s="1000" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="1001" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" s="1002" t="s">
+        <v>34</v>
+      </c>
+      <c r="K63" s="1003" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="1004" t="s">
+        <v>34</v>
+      </c>
+      <c r="M63" s="1005" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" s="1006" t="s">
+        <v>34</v>
+      </c>
+      <c r="O63" s="1007" t="s">
+        <v>34</v>
+      </c>
+      <c r="P63" s="1008" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1009" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="1010" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="1011" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="1012" t="s">
+        <v>26</v>
+      </c>
+      <c r="E64" s="1013" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="1014" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="1015" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="1016" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="1017" t="s">
+        <v>35</v>
+      </c>
+      <c r="J64" s="1018" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" s="1019" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" s="1020" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" s="1021" t="s">
+        <v>35</v>
+      </c>
+      <c r="N64" s="1022" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" s="1023" t="s">
+        <v>35</v>
+      </c>
+      <c r="P64" s="1024" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1025" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1026" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1027" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="1028" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="1029" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="1030" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="1031" t="s">
+        <v>39</v>
+      </c>
+      <c r="H65" s="1032" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="1033" t="s">
+        <v>39</v>
+      </c>
+      <c r="J65" s="1034" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" s="1035" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65" s="1036" t="s">
+        <v>39</v>
+      </c>
+      <c r="M65" s="1037" t="s">
+        <v>39</v>
+      </c>
+      <c r="N65" s="1038" t="s">
+        <v>39</v>
+      </c>
+      <c r="O65" s="1039" t="s">
+        <v>39</v>
+      </c>
+      <c r="P65" s="1040" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1041" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="1042" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="1043" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="1044" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" s="1045" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" s="1046" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="1047" t="s">
+        <v>39</v>
+      </c>
+      <c r="H66" s="1048" t="s">
+        <v>39</v>
+      </c>
+      <c r="I66" s="1049" t="s">
+        <v>39</v>
+      </c>
+      <c r="J66" s="1050" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" s="1051" t="s">
+        <v>39</v>
+      </c>
+      <c r="L66" s="1052" t="s">
+        <v>39</v>
+      </c>
+      <c r="M66" s="1053" t="s">
+        <v>39</v>
+      </c>
+      <c r="N66" s="1054" t="s">
+        <v>39</v>
+      </c>
+      <c r="O66" s="1055" t="s">
+        <v>39</v>
+      </c>
+      <c r="P66" s="1056" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1057" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="1058" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1059" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="1060" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="1061" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" s="1062" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="1063" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="1064" t="s">
+        <v>44</v>
+      </c>
+      <c r="I67" s="1065" t="s">
+        <v>44</v>
+      </c>
+      <c r="J67" s="1066" t="s">
+        <v>44</v>
+      </c>
+      <c r="K67" s="1067" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="1068" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" s="1069" t="s">
+        <v>44</v>
+      </c>
+      <c r="N67" s="1070" t="s">
+        <v>44</v>
+      </c>
+      <c r="O67" s="1071" t="s">
+        <v>44</v>
+      </c>
+      <c r="P67" s="1072" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1073" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="1074" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="1075" t="s">
+        <v>76</v>
+      </c>
+      <c r="D68" s="1076" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" s="1077" t="s">
+        <v>77</v>
+      </c>
+      <c r="F68" s="1078" t="s">
+        <v>77</v>
+      </c>
+      <c r="G68" s="1079" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="1080" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="1081" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68" s="1082" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" s="1083" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68" s="1084" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" s="1085" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="1086" t="s">
+        <v>77</v>
+      </c>
+      <c r="O68" s="1087" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" s="1088" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1089" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="1090" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="1091" t="s">
+        <v>78</v>
+      </c>
+      <c r="D69" s="1092" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" s="1093" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="1094" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="1095" t="s">
+        <v>79</v>
+      </c>
+      <c r="H69" s="1096" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" s="1097" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69" s="1098" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" s="1099" t="s">
+        <v>79</v>
+      </c>
+      <c r="L69" s="1100" t="s">
+        <v>79</v>
+      </c>
+      <c r="M69" s="1101" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" s="1102" t="s">
+        <v>79</v>
+      </c>
+      <c r="O69" s="1103" t="s">
+        <v>79</v>
+      </c>
+      <c r="P69" s="1104" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1105" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="1106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="1107" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="1108" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="1109" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="1110" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="1111" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" s="1112" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" s="1113" t="s">
+        <v>79</v>
+      </c>
+      <c r="J70" s="1114" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" s="1115" t="s">
+        <v>79</v>
+      </c>
+      <c r="L70" s="1116" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" s="1117" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" s="1118" t="s">
+        <v>79</v>
+      </c>
+      <c r="O70" s="1119" t="s">
+        <v>79</v>
+      </c>
+      <c r="P70" s="1120" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1121" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="1123" t="s">
+        <v>80</v>
+      </c>
+      <c r="D71" s="1124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="1125" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="1126" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="1127" t="s">
+        <v>79</v>
+      </c>
+      <c r="H71" s="1128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I71" s="1129" t="s">
+        <v>79</v>
+      </c>
+      <c r="J71" s="1130" t="s">
+        <v>79</v>
+      </c>
+      <c r="K71" s="1131" t="s">
+        <v>79</v>
+      </c>
+      <c r="L71" s="1132" t="s">
+        <v>79</v>
+      </c>
+      <c r="M71" s="1133" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" s="1134" t="s">
+        <v>79</v>
+      </c>
+      <c r="O71" s="1135" t="s">
+        <v>79</v>
+      </c>
+      <c r="P71" s="1136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1137" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="1138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="1139" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72" s="1140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E72" s="1141" t="s">
+        <v>79</v>
+      </c>
+      <c r="F72" s="1142" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="1143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" s="1144" t="s">
+        <v>79</v>
+      </c>
+      <c r="I72" s="1145" t="s">
+        <v>79</v>
+      </c>
+      <c r="J72" s="1146" t="s">
+        <v>79</v>
+      </c>
+      <c r="K72" s="1147" t="s">
+        <v>79</v>
+      </c>
+      <c r="L72" s="1148" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="1149" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" s="1150" t="s">
+        <v>79</v>
+      </c>
+      <c r="O72" s="1151" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" s="1152" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="1154" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="1155" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="1156" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" s="1157" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="1158" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="1159" t="s">
+        <v>79</v>
+      </c>
+      <c r="H73" s="1160" t="s">
+        <v>79</v>
+      </c>
+      <c r="I73" s="1161" t="s">
+        <v>79</v>
+      </c>
+      <c r="J73" s="1162" t="s">
+        <v>79</v>
+      </c>
+      <c r="K73" s="1163" t="s">
+        <v>79</v>
+      </c>
+      <c r="L73" s="1164" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="1165" t="s">
+        <v>79</v>
+      </c>
+      <c r="N73" s="1166" t="s">
+        <v>79</v>
+      </c>
+      <c r="O73" s="1167" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" s="1168" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="1170" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="1171" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="1172" t="s">
+        <v>60</v>
+      </c>
+      <c r="E74" s="1173" t="s">
+        <v>82</v>
+      </c>
+      <c r="F74" s="1174" t="s">
+        <v>82</v>
+      </c>
+      <c r="G74" s="1175" t="s">
+        <v>82</v>
+      </c>
+      <c r="H74" s="1176" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74" s="1177" t="s">
+        <v>82</v>
+      </c>
+      <c r="J74" s="1178" t="s">
+        <v>82</v>
+      </c>
+      <c r="K74" s="1179" t="s">
+        <v>82</v>
+      </c>
+      <c r="L74" s="1180" t="s">
+        <v>82</v>
+      </c>
+      <c r="M74" s="1181" t="s">
+        <v>82</v>
+      </c>
+      <c r="N74" s="1182" t="s">
+        <v>82</v>
+      </c>
+      <c r="O74" s="1183" t="s">
+        <v>82</v>
+      </c>
+      <c r="P74" s="1184" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1185" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="1186" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="1187" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="1188" t="s">
+        <v>60</v>
+      </c>
+      <c r="E75" s="1189" t="s">
+        <v>83</v>
+      </c>
+      <c r="F75" s="1190" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" s="1191" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="1192" t="s">
+        <v>83</v>
+      </c>
+      <c r="I75" s="1193" t="s">
+        <v>83</v>
+      </c>
+      <c r="J75" s="1194" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="1195" t="s">
+        <v>83</v>
+      </c>
+      <c r="L75" s="1196" t="s">
+        <v>83</v>
+      </c>
+      <c r="M75" s="1197" t="s">
+        <v>83</v>
+      </c>
+      <c r="N75" s="1198" t="s">
+        <v>83</v>
+      </c>
+      <c r="O75" s="1199" t="s">
+        <v>83</v>
+      </c>
+      <c r="P75" s="1200" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1201" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="1202" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="1203" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="1204" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="1205" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" s="1206" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" s="1207" t="s">
+        <v>82</v>
+      </c>
+      <c r="H76" s="1208" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" s="1209" t="s">
+        <v>82</v>
+      </c>
+      <c r="J76" s="1210" t="s">
+        <v>82</v>
+      </c>
+      <c r="K76" s="1211" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" s="1212" t="s">
+        <v>82</v>
+      </c>
+      <c r="M76" s="1213" t="s">
+        <v>82</v>
+      </c>
+      <c r="N76" s="1214" t="s">
+        <v>82</v>
+      </c>
+      <c r="O76" s="1215" t="s">
+        <v>82</v>
+      </c>
+      <c r="P76" s="1216" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1217" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="1218" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="1219" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="1220" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="1221" t="s">
+        <v>83</v>
+      </c>
+      <c r="F77" s="1222" t="s">
+        <v>83</v>
+      </c>
+      <c r="G77" s="1223" t="s">
+        <v>83</v>
+      </c>
+      <c r="H77" s="1224" t="s">
+        <v>83</v>
+      </c>
+      <c r="I77" s="1225" t="s">
+        <v>83</v>
+      </c>
+      <c r="J77" s="1226" t="s">
+        <v>83</v>
+      </c>
+      <c r="K77" s="1227" t="s">
+        <v>83</v>
+      </c>
+      <c r="L77" s="1228" t="s">
+        <v>83</v>
+      </c>
+      <c r="M77" s="1229" t="s">
+        <v>83</v>
+      </c>
+      <c r="N77" s="1230" t="s">
+        <v>83</v>
+      </c>
+      <c r="O77" s="1231" t="s">
+        <v>83</v>
+      </c>
+      <c r="P77" s="1232" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1233" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="1234" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="1235" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="1236" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="1237" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" s="1238" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" s="1239" t="s">
+        <v>82</v>
+      </c>
+      <c r="H78" s="1240" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" s="1241" t="s">
+        <v>82</v>
+      </c>
+      <c r="J78" s="1242" t="s">
+        <v>82</v>
+      </c>
+      <c r="K78" s="1243" t="s">
+        <v>82</v>
+      </c>
+      <c r="L78" s="1244" t="s">
+        <v>82</v>
+      </c>
+      <c r="M78" s="1245" t="s">
+        <v>82</v>
+      </c>
+      <c r="N78" s="1246" t="s">
+        <v>82</v>
+      </c>
+      <c r="O78" s="1247" t="s">
+        <v>82</v>
+      </c>
+      <c r="P78" s="1248" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1249" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="1250" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1251" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="1252" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="1253" t="s">
+        <v>83</v>
+      </c>
+      <c r="F79" s="1254" t="s">
+        <v>83</v>
+      </c>
+      <c r="G79" s="1255" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" s="1256" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79" s="1257" t="s">
+        <v>83</v>
+      </c>
+      <c r="J79" s="1258" t="s">
+        <v>83</v>
+      </c>
+      <c r="K79" s="1259" t="s">
+        <v>83</v>
+      </c>
+      <c r="L79" s="1260" t="s">
+        <v>83</v>
+      </c>
+      <c r="M79" s="1261" t="s">
+        <v>83</v>
+      </c>
+      <c r="N79" s="1262" t="s">
+        <v>83</v>
+      </c>
+      <c r="O79" s="1263" t="s">
+        <v>83</v>
+      </c>
+      <c r="P79" s="1264" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1265" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="1266" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="1267" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="1268" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" s="1269" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" s="1270" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="1271" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" s="1272" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" s="1273" t="s">
+        <v>82</v>
+      </c>
+      <c r="J80" s="1274" t="s">
+        <v>82</v>
+      </c>
+      <c r="K80" s="1275" t="s">
+        <v>82</v>
+      </c>
+      <c r="L80" s="1276" t="s">
+        <v>82</v>
+      </c>
+      <c r="M80" s="1277" t="s">
+        <v>82</v>
+      </c>
+      <c r="N80" s="1278" t="s">
+        <v>82</v>
+      </c>
+      <c r="O80" s="1279" t="s">
+        <v>82</v>
+      </c>
+      <c r="P80" s="1280" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="1282" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="1283" t="s">
+        <v>81</v>
+      </c>
+      <c r="D81" s="1284" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="1285" t="s">
+        <v>83</v>
+      </c>
+      <c r="F81" s="1286" t="s">
+        <v>83</v>
+      </c>
+      <c r="G81" s="1287" t="s">
+        <v>83</v>
+      </c>
+      <c r="H81" s="1288" t="s">
+        <v>83</v>
+      </c>
+      <c r="I81" s="1289" t="s">
+        <v>83</v>
+      </c>
+      <c r="J81" s="1290" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" s="1291" t="s">
+        <v>83</v>
+      </c>
+      <c r="L81" s="1292" t="s">
+        <v>83</v>
+      </c>
+      <c r="M81" s="1293" t="s">
+        <v>83</v>
+      </c>
+      <c r="N81" s="1294" t="s">
+        <v>83</v>
+      </c>
+      <c r="O81" s="1295" t="s">
+        <v>83</v>
+      </c>
+      <c r="P81" s="1296" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1297" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="1298" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="1299" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="1300" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1301" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" s="1302" t="s">
+        <v>82</v>
+      </c>
+      <c r="G82" s="1303" t="s">
+        <v>82</v>
+      </c>
+      <c r="H82" s="1304" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82" s="1305" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="1306" t="s">
+        <v>82</v>
+      </c>
+      <c r="K82" s="1307" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82" s="1308" t="s">
+        <v>82</v>
+      </c>
+      <c r="M82" s="1309" t="s">
+        <v>82</v>
+      </c>
+      <c r="N82" s="1310" t="s">
+        <v>82</v>
+      </c>
+      <c r="O82" s="1311" t="s">
+        <v>82</v>
+      </c>
+      <c r="P82" s="1312" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="1315" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="1316" t="s">
+        <v>75</v>
+      </c>
+      <c r="E83" s="1317" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="1318" t="s">
+        <v>83</v>
+      </c>
+      <c r="G83" s="1319" t="s">
+        <v>83</v>
+      </c>
+      <c r="H83" s="1320" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83" s="1321" t="s">
+        <v>83</v>
+      </c>
+      <c r="J83" s="1322" t="s">
+        <v>83</v>
+      </c>
+      <c r="K83" s="1323" t="s">
+        <v>83</v>
+      </c>
+      <c r="L83" s="1324" t="s">
+        <v>83</v>
+      </c>
+      <c r="M83" s="1325" t="s">
+        <v>83</v>
+      </c>
+      <c r="N83" s="1326" t="s">
+        <v>83</v>
+      </c>
+      <c r="O83" s="1327" t="s">
+        <v>83</v>
+      </c>
+      <c r="P83" s="1328" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <autoFilter ref="A1:P1"/>
-  <mergeCells>
-    <mergeCell ref="A2:O2"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/exportar.xlsx
+++ b/exportar.xlsx
@@ -10,67 +10,145 @@
     <sheet name="1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Fecha movimiento</t>
+  </si>
+  <si>
+    <t>Movimiento</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
   <si>
     <t>Razon social</t>
   </si>
   <si>
-    <t>Rfc</t>
-  </si>
-  <si>
-    <t>Direccion fiscal</t>
-  </si>
-  <si>
-    <t>No certificado</t>
-  </si>
-  <si>
-    <t>Vigencia de certificado</t>
-  </si>
-  <si>
-    <t>Acciones</t>
-  </si>
-  <si>
-    <t>BHSC CONTADORES</t>
-  </si>
-  <si>
-    <t>TCM970625MB1</t>
-  </si>
-  <si>
-    <t>AV. CONSCRIPTO 95 INT 8 s s NAUCLAPN ESTADO DE MEXICO 53910 MEXICO</t>
-  </si>
-  <si>
-    <t>21-10-2020 3:47:45 pm</t>
-  </si>
-  <si>
-    <t>BRAUN HUERIN CONTADORES PUBLICOS SC s</t>
-  </si>
-  <si>
-    <t>BHC191101Q44</t>
-  </si>
-  <si>
-    <t>D G G D D 0 D</t>
-  </si>
-  <si>
-    <t>13-02-2024 3:44:32 pm</t>
-  </si>
-  <si>
-    <t>BRAUN HUERIN S.C</t>
-  </si>
-  <si>
-    <t>BHU120320CQ1</t>
-  </si>
-  <si>
-    <t>CALLE NAVARRA 210  PLANTA BAJA  DEL. BENITO JUAREZ CIUDAD DE MEXICO 03400 MEXICO</t>
-  </si>
-  <si>
-    <t>17-05-2021 10:54:56 pm</t>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Costo mensual</t>
+  </si>
+  <si>
+    <t>Costo una sola ocasíon</t>
+  </si>
+  <si>
+    <t>Recomendado</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Publico en General</t>
+  </si>
+  <si>
+    <t>PUBLICO EN GENERAL</t>
+  </si>
+  <si>
+    <t>AUDITORIA</t>
+  </si>
+  <si>
+    <t>Esdrell Landeros Torres</t>
+  </si>
+  <si>
+    <t>2020-10-06</t>
+  </si>
+  <si>
+    <t>CONJURADO DIGITAL SRLS</t>
+  </si>
+  <si>
+    <t>ASIMILADOS A SALARIOS</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>NOMINAS Y OTROS CALCULOS</t>
+  </si>
+  <si>
+    <t>IMSS E INFONAVIT</t>
+  </si>
+  <si>
+    <t>CONTABILIDAD MENSUAL</t>
+  </si>
+  <si>
+    <t>Gerardo Colin Mejia</t>
+  </si>
+  <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
+    <t>2020-04-08</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>RIF</t>
+  </si>
+  <si>
+    <t>2020-02-09</t>
+  </si>
+  <si>
+    <t>SUELDOS Y SALARIOS</t>
+  </si>
+  <si>
+    <t>ANUAL</t>
+  </si>
+  <si>
+    <t>SIN OBLIGACIONES</t>
+  </si>
+  <si>
+    <t>3% SOBRE NOMINA</t>
+  </si>
+  <si>
+    <t>REPRESENTACION LEGAL FIEL</t>
+  </si>
+  <si>
+    <t>NOMINAS Y OTROS CALCULOS ESTADO DE MEXICO</t>
+  </si>
+  <si>
+    <t>3% SOBRE NOMINA ESTADO DE MEXICO</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>Baja temporal</t>
+  </si>
+  <si>
+    <t>AARON TUSSIE COHEN</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE PINTURAS SCHILLER S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>Bissael cruz mendez</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>JONATAN TAWIL AMKIE</t>
+  </si>
+  <si>
+    <t>Alicia Teodosio Gonzalez</t>
   </si>
 </sst>
 </file>
@@ -120,27 +198,1425 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="491">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -495,7 +1971,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -504,15 +1980,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="34.134521" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.568604" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="72.839355" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="3.427734" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.13916" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="12.425537" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.852783" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="21.42334" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="7.998047" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="43.132324" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="37.705078" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="22.423096" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.425537" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="20.566406" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="10.71167" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,64 +2011,1412 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10">
-        <v>2.00010000003E+19</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="13" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="16">
-        <v>1.0000005031557E+15</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="19" t="s">
+      <c r="D2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="H2" s="18">
+        <v>1</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="22">
-        <v>3.00010000003E+19</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="C3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38">
+        <v>1</v>
+      </c>
+      <c r="I4" s="39">
+        <v>1</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48">
+        <v>1</v>
+      </c>
+      <c r="I5" s="49">
+        <v>1</v>
+      </c>
+      <c r="J5" s="50"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="51">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58">
+        <v>2</v>
+      </c>
+      <c r="I6" s="59">
+        <v>2</v>
+      </c>
+      <c r="J6" s="60"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="61">
+        <v>6</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" s="69">
+        <v>1</v>
+      </c>
+      <c r="J7" s="70"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="71">
+        <v>7</v>
+      </c>
+      <c r="B8" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78">
+        <v>1</v>
+      </c>
+      <c r="I8" s="79">
+        <v>1</v>
+      </c>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="81">
+        <v>8</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88">
+        <v>1</v>
+      </c>
+      <c r="I9" s="89">
+        <v>1</v>
+      </c>
+      <c r="J9" s="90"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="91">
+        <v>9</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="97"/>
+      <c r="H10" s="98">
+        <v>1</v>
+      </c>
+      <c r="I10" s="99">
+        <v>1</v>
+      </c>
+      <c r="J10" s="100"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="101">
+        <v>10</v>
+      </c>
+      <c r="B11" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108">
+        <v>1</v>
+      </c>
+      <c r="I11" s="109">
+        <v>1</v>
+      </c>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="111">
+        <v>11</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="114" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="116" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="117" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="118">
+        <v>1</v>
+      </c>
+      <c r="I12" s="119">
+        <v>1</v>
+      </c>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="121">
+        <v>12</v>
+      </c>
+      <c r="B13" s="122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="128">
+        <v>1</v>
+      </c>
+      <c r="I13" s="129">
+        <v>1</v>
+      </c>
+      <c r="J13" s="130"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="131">
+        <v>13</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="136" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="137" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="138">
+        <v>1</v>
+      </c>
+      <c r="I14" s="139">
+        <v>1</v>
+      </c>
+      <c r="J14" s="140"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="141">
+        <v>14</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="144" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="146" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="147" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="148">
+        <v>1</v>
+      </c>
+      <c r="I15" s="149">
+        <v>1</v>
+      </c>
+      <c r="J15" s="150"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="151">
+        <v>15</v>
+      </c>
+      <c r="B16" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="156" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="157" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="158">
+        <v>1</v>
+      </c>
+      <c r="I16" s="159">
+        <v>1</v>
+      </c>
+      <c r="J16" s="160"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="161">
+        <v>16</v>
+      </c>
+      <c r="B17" s="162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="167" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="168">
+        <v>1</v>
+      </c>
+      <c r="I17" s="169">
+        <v>1</v>
+      </c>
+      <c r="J17" s="170"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="171">
+        <v>17</v>
+      </c>
+      <c r="B18" s="172" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="176" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="177" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="178">
+        <v>1</v>
+      </c>
+      <c r="I18" s="179">
+        <v>1</v>
+      </c>
+      <c r="J18" s="180"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="181">
+        <v>18</v>
+      </c>
+      <c r="B19" s="182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="184" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="186" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="187" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="188">
+        <v>1</v>
+      </c>
+      <c r="I19" s="189">
+        <v>1</v>
+      </c>
+      <c r="J19" s="190"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="191">
+        <v>19</v>
+      </c>
+      <c r="B20" s="192" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="196" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="197" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="198">
+        <v>0</v>
+      </c>
+      <c r="I20" s="199">
+        <v>0</v>
+      </c>
+      <c r="J20" s="200"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="201">
+        <v>20</v>
+      </c>
+      <c r="B21" s="202" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="203" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="204" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="206" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="207" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="208">
+        <v>0</v>
+      </c>
+      <c r="I21" s="209">
+        <v>0</v>
+      </c>
+      <c r="J21" s="210"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="211">
+        <v>21</v>
+      </c>
+      <c r="B22" s="212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="213" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="214" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="216" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="217" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="218">
+        <v>0</v>
+      </c>
+      <c r="I22" s="219">
+        <v>0</v>
+      </c>
+      <c r="J22" s="220"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="221">
+        <v>22</v>
+      </c>
+      <c r="B23" s="222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="224" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="226" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="227" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="228">
+        <v>0</v>
+      </c>
+      <c r="I23" s="229">
+        <v>0</v>
+      </c>
+      <c r="J23" s="230"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="231">
+        <v>23</v>
+      </c>
+      <c r="B24" s="232" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="233" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="234" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="235" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="236" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="237" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="238">
+        <v>0</v>
+      </c>
+      <c r="I24" s="239">
+        <v>0</v>
+      </c>
+      <c r="J24" s="240"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="241">
+        <v>24</v>
+      </c>
+      <c r="B25" s="242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="243" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="244" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="246" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="247" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="248">
+        <v>0</v>
+      </c>
+      <c r="I25" s="249">
+        <v>0</v>
+      </c>
+      <c r="J25" s="250"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="251">
+        <v>25</v>
+      </c>
+      <c r="B26" s="252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="253" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="254" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="256" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="257" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="258">
+        <v>0</v>
+      </c>
+      <c r="I26" s="259">
+        <v>0</v>
+      </c>
+      <c r="J26" s="260"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="261">
+        <v>26</v>
+      </c>
+      <c r="B27" s="262" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="263" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="264" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="265" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="266" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="267"/>
+      <c r="H27" s="268">
+        <v>0</v>
+      </c>
+      <c r="I27" s="269">
+        <v>0</v>
+      </c>
+      <c r="J27" s="270"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="271">
+        <v>27</v>
+      </c>
+      <c r="B28" s="272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="273" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="274" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="276" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="277"/>
+      <c r="H28" s="278">
+        <v>0</v>
+      </c>
+      <c r="I28" s="279">
+        <v>0</v>
+      </c>
+      <c r="J28" s="280"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="281">
+        <v>28</v>
+      </c>
+      <c r="B29" s="282" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="283" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="284" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="285" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="286" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="287"/>
+      <c r="H29" s="288">
+        <v>0</v>
+      </c>
+      <c r="I29" s="289">
+        <v>0</v>
+      </c>
+      <c r="J29" s="290"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="291">
+        <v>29</v>
+      </c>
+      <c r="B30" s="292" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="293" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="294" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="296" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="297" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="298">
+        <v>0</v>
+      </c>
+      <c r="I30" s="299">
+        <v>0</v>
+      </c>
+      <c r="J30" s="300"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="301">
+        <v>30</v>
+      </c>
+      <c r="B31" s="302" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="303" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="304" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="305" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="306" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="307" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="308">
+        <v>0</v>
+      </c>
+      <c r="I31" s="309">
+        <v>0</v>
+      </c>
+      <c r="J31" s="310"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="311">
+        <v>31</v>
+      </c>
+      <c r="B32" s="312" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="313" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="314" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="315" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="316" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="317"/>
+      <c r="H32" s="318">
+        <v>2.5</v>
+      </c>
+      <c r="I32" s="319">
+        <v>2.5</v>
+      </c>
+      <c r="J32" s="320"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="321">
+        <v>32</v>
+      </c>
+      <c r="B33" s="322" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="323" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="324" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="325" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="326" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="327"/>
+      <c r="H33" s="328">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="329">
+        <v>2.5</v>
+      </c>
+      <c r="J33" s="330"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="331">
+        <v>33</v>
+      </c>
+      <c r="B34" s="332" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="334" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="335" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="336" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" s="337" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="338">
+        <v>0</v>
+      </c>
+      <c r="I34" s="339">
+        <v>0</v>
+      </c>
+      <c r="J34" s="340"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="341">
+        <v>34</v>
+      </c>
+      <c r="B35" s="342" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="343" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="344" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="345" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="346" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="347" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="348">
+        <v>0</v>
+      </c>
+      <c r="I35" s="349">
+        <v>0</v>
+      </c>
+      <c r="J35" s="350"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="351">
+        <v>35</v>
+      </c>
+      <c r="B36" s="352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="353" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="355" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="356" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="357"/>
+      <c r="H36" s="358">
+        <v>0</v>
+      </c>
+      <c r="I36" s="359">
+        <v>0</v>
+      </c>
+      <c r="J36" s="360"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="361">
+        <v>36</v>
+      </c>
+      <c r="B37" s="362" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="363" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="364" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="365" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="366" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="367"/>
+      <c r="H37" s="368">
+        <v>0</v>
+      </c>
+      <c r="I37" s="369">
+        <v>0</v>
+      </c>
+      <c r="J37" s="370"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="371">
+        <v>37</v>
+      </c>
+      <c r="B38" s="372" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="373" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="375" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="376" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="377"/>
+      <c r="H38" s="378">
+        <v>0</v>
+      </c>
+      <c r="I38" s="379">
+        <v>0</v>
+      </c>
+      <c r="J38" s="380"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="381">
+        <v>38</v>
+      </c>
+      <c r="B39" s="382" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="383" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="385" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="386" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="387"/>
+      <c r="H39" s="388">
+        <v>0</v>
+      </c>
+      <c r="I39" s="389">
+        <v>0</v>
+      </c>
+      <c r="J39" s="390"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="391">
+        <v>39</v>
+      </c>
+      <c r="B40" s="392" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="393" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="395" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="396" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="397"/>
+      <c r="H40" s="398">
+        <v>0</v>
+      </c>
+      <c r="I40" s="399">
+        <v>0</v>
+      </c>
+      <c r="J40" s="400"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="401">
+        <v>40</v>
+      </c>
+      <c r="B41" s="402" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="403" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="404" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="405" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="406" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="407"/>
+      <c r="H41" s="408">
+        <v>0</v>
+      </c>
+      <c r="I41" s="409">
+        <v>0</v>
+      </c>
+      <c r="J41" s="410"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="411">
+        <v>41</v>
+      </c>
+      <c r="B42" s="412" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="413" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="414" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="415" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="416" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="417"/>
+      <c r="H42" s="418">
+        <v>0</v>
+      </c>
+      <c r="I42" s="419">
+        <v>0</v>
+      </c>
+      <c r="J42" s="420"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="421">
+        <v>42</v>
+      </c>
+      <c r="B43" s="422" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="423" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="424" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="425" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="426" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43" s="427"/>
+      <c r="H43" s="428">
+        <v>0</v>
+      </c>
+      <c r="I43" s="429">
+        <v>0</v>
+      </c>
+      <c r="J43" s="430"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="431">
+        <v>43</v>
+      </c>
+      <c r="B44" s="432" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="433" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="434" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="435" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="436" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="437"/>
+      <c r="H44" s="438">
+        <v>3</v>
+      </c>
+      <c r="I44" s="439">
+        <v>3</v>
+      </c>
+      <c r="J44" s="440"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="441">
+        <v>44</v>
+      </c>
+      <c r="B45" s="442" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="443" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="444" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="445" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="446" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" s="447"/>
+      <c r="H45" s="448">
+        <v>3</v>
+      </c>
+      <c r="I45" s="449">
+        <v>3</v>
+      </c>
+      <c r="J45" s="450"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="451">
+        <v>45</v>
+      </c>
+      <c r="B46" s="452" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="453" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="454" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="455" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="456" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="457"/>
+      <c r="H46" s="458">
+        <v>3</v>
+      </c>
+      <c r="I46" s="459">
+        <v>3</v>
+      </c>
+      <c r="J46" s="460"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="461">
+        <v>46</v>
+      </c>
+      <c r="B47" s="462" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="463" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="464" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="465" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="466" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="467"/>
+      <c r="H47" s="468">
+        <v>3</v>
+      </c>
+      <c r="I47" s="469">
+        <v>3</v>
+      </c>
+      <c r="J47" s="470"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="471">
+        <v>47</v>
+      </c>
+      <c r="B48" s="472" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="473" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="474" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="475" t="s">
+        <v>39</v>
+      </c>
+      <c r="F48" s="476" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="477" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="478">
+        <v>5100</v>
+      </c>
+      <c r="I48" s="479">
+        <v>5100</v>
+      </c>
+      <c r="J48" s="480"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="481">
+        <v>48</v>
+      </c>
+      <c r="B49" s="482" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="483" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="484" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="485" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="486" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" s="487" t="s">
+        <v>43</v>
+      </c>
+      <c r="H49" s="488">
+        <v>0</v>
+      </c>
+      <c r="I49" s="489">
+        <v>0</v>
+      </c>
+      <c r="J49" s="490"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:J1"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
